--- a/templates/dataplant/4COM02_ProteomicsDataProcessing.xlsx
+++ b/templates/dataplant/4COM02_ProteomicsDataProcessing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2602C29F-4481-4959-9FEE-9E4C52EB8EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD386DA5-5AE1-4217-8B8D-160AE34F8CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19110" windowHeight="12450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM02_ProteomicsDataProcessing" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
   <si>
     <t>Source Name</t>
   </si>
@@ -428,13 +428,16 @@
   </si>
   <si>
     <t>DataPLANT</t>
+  </si>
+  <si>
+    <t>Derived Data File</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,12 +452,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -586,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -624,6 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,7 +660,7 @@
     <tableColumn id="6" xr3:uid="{0877D261-4CD4-43B0-B109-673D8A5A139C}" name="Parameter [data processing software]"/>
     <tableColumn id="7" xr3:uid="{CFA2B354-D88D-47A6-8F42-8ADFFBAB4EF9}" name="Term Source REF (MS:1001457)"/>
     <tableColumn id="8" xr3:uid="{409B465D-EF59-4256-B73A-316ADF4710F4}" name="Term Accession Number (MS:1001457)"/>
-    <tableColumn id="9" xr3:uid="{72E6E062-F2DE-4774-B821-932CA7699C29}" name="Data File Name"/>
+    <tableColumn id="9" xr3:uid="{D8EEDECE-D864-4CE4-A7C7-83F55D9B12E5}" name="Derived Data File"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -966,7 +964,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="718" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="650" row="3">
@@ -999,21 +997,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1079,6 +1079,7 @@
       <c r="J2" t="s">
         <v>82</v>
       </c>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1108,6 +1109,7 @@
       <c r="J3" t="s">
         <v>89</v>
       </c>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1137,6 +1139,7 @@
       <c r="J4" t="s">
         <v>90</v>
       </c>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1166,6 +1169,7 @@
       <c r="J5" t="s">
         <v>91</v>
       </c>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1195,6 +1199,7 @@
       <c r="J6" t="s">
         <v>92</v>
       </c>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1224,6 +1229,7 @@
       <c r="J7" t="s">
         <v>93</v>
       </c>
+      <c r="K7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1237,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AAA522-F19E-4710-B970-316CC0A90CE6}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/templates/dataplant/4COM02_ProteomicsDataProcessing.xlsx
+++ b/templates/dataplant/4COM02_ProteomicsDataProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD386DA5-5AE1-4217-8B8D-160AE34F8CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F9D884-889E-4119-A72F-D98D36D250D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM02_ProteomicsDataProcessing" sheetId="1" r:id="rId1"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1099E1D0-D076-443E-894B-9E3ED68B03A6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=6364b4a3-aae5-40c8-a5e3-221139d1a7db</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{ED4C9886-F5CF-48CC-BD42-6120C5CFD25E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{D3811907-E5C5-4E27-9565-3FC0EF712548}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{0E3E0205-37BA-415E-AB90-8AE4C45E3BF3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{D2E88502-A283-4FC8-8055-93BE38E7E2F6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{274D0D9F-2895-4E80-B9B2-2F27EDD6318C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{220ABE78-E6F3-47E4-9768-95E5E25B8414}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{4ADE2B35-25A7-488F-917E-3BFECE3C0CBD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{CA33531D-804A-4B0B-8B2F-D1C0ACFA3EC2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="105">
   <si>
     <t>Source Name</t>
   </si>
@@ -238,9 +238,6 @@
     <t>PRIDE</t>
   </si>
   <si>
-    <t>Computational analyses</t>
-  </si>
-  <si>
     <t>Proteomics</t>
   </si>
   <si>
@@ -431,6 +428,21 @@
   </si>
   <si>
     <t>Derived Data File</t>
+  </si>
+  <si>
+    <t>Computational Analysis</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C20085</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
+  </si>
+  <si>
+    <t>DPBO</t>
   </si>
 </sst>
 </file>
@@ -624,7 +636,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -997,26 +1009,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,13 +1042,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
         <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1048,186 +1060,186 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
         <v>73</v>
       </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>78</v>
       </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
         <v>92</v>
-      </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
       </c>
       <c r="K7" s="13"/>
     </row>
@@ -1243,19 +1255,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AAA522-F19E-4710-B970-316CC0A90CE6}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1271,15 +1283,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1287,15 +1299,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1303,7 +1315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1325,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1325,27 +1337,31 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1355,47 +1371,51 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1405,31 +1425,31 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1439,7 +1459,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1449,7 +1469,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1459,7 +1479,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1469,7 +1489,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1479,7 +1499,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1489,9 +1509,9 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1499,9 +1519,9 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1509,9 +1529,9 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1519,9 +1539,9 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1541,248 +1561,248 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="J5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/4COM02_ProteomicsDataProcessing.xlsx
+++ b/templates/dataplant/4COM02_ProteomicsDataProcessing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F9D884-889E-4119-A72F-D98D36D250D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45193AA-04D0-4622-86AF-03FDF966D86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM02_ProteomicsDataProcessing" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
   <si>
     <t>Source Name</t>
   </si>
@@ -235,9 +235,6 @@
     <t>annotationTableMeanMonkey69</t>
   </si>
   <si>
-    <t>PRIDE</t>
-  </si>
-  <si>
     <t>Proteomics</t>
   </si>
   <si>
@@ -437,12 +434,6 @@
   </si>
   <si>
     <t>NCIT</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
-  </si>
-  <si>
-    <t>DPBO</t>
   </si>
 </sst>
 </file>
@@ -1042,13 +1033,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1060,186 +1051,186 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" s="13"/>
     </row>
@@ -1256,7 +1247,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1304,7 +1295,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1329,9 +1320,7 @@
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1341,9 +1330,7 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1353,9 +1340,7 @@
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1376,19 +1361,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1397,7 +1382,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1409,7 +1394,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1430,7 +1415,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1442,7 +1427,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1511,7 +1496,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1521,7 +1506,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1531,7 +1516,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1541,7 +1526,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1579,40 +1564,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1620,37 +1605,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1658,75 +1643,75 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1734,37 +1719,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="J5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1772,37 +1757,37 @@
         <v>7</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/4COM02_ProteomicsDataProcessing.xlsx
+++ b/templates/dataplant/4COM02_ProteomicsDataProcessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45193AA-04D0-4622-86AF-03FDF966D86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB87E6B-878D-4D92-AFF0-F5FD0F67A203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM02_ProteomicsDataProcessing" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
   <si>
     <t>Source Name</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Proteomics</t>
   </si>
   <si>
-    <t>Data processing</t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
@@ -434,6 +431,12 @@
   </si>
   <si>
     <t>NCIT</t>
+  </si>
+  <si>
+    <t>data processing</t>
+  </si>
+  <si>
+    <t>NCIT:C47925</t>
   </si>
 </sst>
 </file>
@@ -1033,13 +1036,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1051,186 +1054,186 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K7" s="13"/>
     </row>
@@ -1247,7 +1250,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1295,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1361,19 +1364,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1382,9 +1385,11 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
@@ -1394,7 +1399,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1415,7 +1420,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1427,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1496,7 +1501,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1506,7 +1511,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1516,7 +1521,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1526,7 +1531,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1564,40 +1569,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1605,37 +1610,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1643,75 +1648,75 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1719,37 +1724,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="J5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1757,37 +1762,37 @@
         <v>7</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
